--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>665146.8080563659</v>
+        <v>662583.8708617906</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>118.0579154674805</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>233.8737061240433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>7.085048196140349</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24429444971714</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>108.4721783769029</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>233.3934276525046</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.47631593278007</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>23.72972425579976</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>203.7480427661288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164.3855667213731</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>286.253756440278</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>194.1918454193165</v>
       </c>
       <c r="U10" t="n">
-        <v>209.9271762854922</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>331.638843934971</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>16.86583425217314</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1579,7 +1579,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.55695577161148</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890381</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>67.97896981790605</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24347904696276</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>192.7715349547537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>713.5716291771834</v>
+        <v>897.725421779287</v>
       </c>
       <c r="C2" t="n">
-        <v>713.5716291771834</v>
+        <v>528.7629048388753</v>
       </c>
       <c r="D2" t="n">
-        <v>355.3059305704328</v>
+        <v>170.4972062321248</v>
       </c>
       <c r="E2" t="n">
-        <v>355.3059305704328</v>
+        <v>170.4972062321248</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>170.4972062321248</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.776559478197</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1490.310801217117</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1100.171469241305</v>
+        <v>1284.325261843409</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2262.298126874723</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>864.6537434744305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>864.6537434744305</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.6537434744305</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.021456295685</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>926.0589393552737</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,7 +4562,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4586,31 +4586,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>2100.01262627016</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1726.54686800908</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.621296359807</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.8272960668249</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="C7" t="n">
-        <v>473.8272960668249</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>223.9551031446987</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>75.21620500820489</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4753,22 +4753,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>944.8929309340253</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>655.4757608970647</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>655.4757608970647</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>655.4757608970647</v>
+        <v>223.9551031446987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1632.688211171978</v>
+        <v>656.1154853312732</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>656.1154853312732</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>656.1154853312732</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>656.1154853312732</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>1042.715325395395</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4960,25 +4960,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1243.663993022928</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.398467260869</v>
+        <v>954.5456555267655</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.398467260869</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.981297223908</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9917463258904</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.1991671823603</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E11" t="n">
         <v>1204.208000760437</v>
@@ -5033,58 +5033,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608056</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072585</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>733.6583989593863</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.7377723076911</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7015760933748</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>696.7015760933748</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>548.7884825109817</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>401.8985350130713</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
         <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5227,22 +5227,22 @@
         <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2177.346239107599</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.270025422326</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1633.585537216439</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1344.168367179478</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.178816281461</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.3862371379308</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2072.35525930079</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2495.978408795858</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>168.7434581780648</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>168.7434581780644</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-3.860695723495905e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>346.7432522542105</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>115.3672625933697</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>379.1528904599132</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>110.1124749751919</v>
       </c>
     </row>
     <row r="5">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.29152613729082</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>150.3809868464547</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8770068749577</v>
+        <v>46.45968844823192</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856647</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>99.26785128072179</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459399</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856647</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0033420516651</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>123.7828069546817</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.63391537253457</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>951934.5569921243</v>
+        <v>951934.5569921245</v>
       </c>
     </row>
     <row r="3">
@@ -26314,34 +26314,34 @@
         <v>375475.6212503242</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="I2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="L2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="K2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
@@ -26350,10 +26350,10 @@
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="P2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361764</v>
+        <v>495753.0386361761</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504109</v>
+        <v>11452.26311504116</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.5444317442</v>
+        <v>129476.5444317441</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704674</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7500.835840494316</v>
+        <v>7500.835840494315</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26433,31 +26433,31 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719643</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719643</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719647</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719642</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719652</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-925322.4329838109</v>
+        <v>-925497.65930222</v>
       </c>
       <c r="C6" t="n">
         <v>184469.2489455527</v>
       </c>
       <c r="D6" t="n">
-        <v>184469.2489455527</v>
+        <v>184469.2489455525</v>
       </c>
       <c r="E6" t="n">
-        <v>-202056.1171714938</v>
+        <v>-202102.022167059</v>
       </c>
       <c r="F6" t="n">
-        <v>283491.1384443353</v>
+        <v>283456.4005188994</v>
       </c>
       <c r="G6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339406</v>
       </c>
       <c r="H6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339402</v>
       </c>
       <c r="I6" t="n">
-        <v>294943.4015593762</v>
+        <v>294908.6636339407</v>
       </c>
       <c r="J6" t="n">
-        <v>127338.2237493936</v>
+        <v>127303.485823958</v>
       </c>
       <c r="K6" t="n">
-        <v>294943.4015593762</v>
+        <v>294908.6636339404</v>
       </c>
       <c r="L6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339405</v>
       </c>
       <c r="M6" t="n">
-        <v>165466.8571276321</v>
+        <v>165432.1192021965</v>
       </c>
       <c r="N6" t="n">
-        <v>291866.3842036716</v>
+        <v>291831.6462782358</v>
       </c>
       <c r="O6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339407</v>
       </c>
       <c r="P6" t="n">
-        <v>294943.4015593764</v>
+        <v>294908.6636339406</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988467</v>
+        <v>423.9761565988465</v>
       </c>
       <c r="F3" t="n">
         <v>9.93445162528792</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259681</v>
+        <v>519.5604582259679</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259681</v>
+        <v>519.5604582259679</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259681</v>
+        <v>519.5604582259679</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35.18711781805126</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>293.4897873054735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>116.0025266489107</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27667,7 +27667,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>136.3376730259644</v>
       </c>
       <c r="Y5" t="n">
-        <v>341.7616227232735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>81.06687094810081</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>48.38960055769917</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.3482749421075</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>120.6222893014335</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>26.55685057789549</v>
       </c>
       <c r="U10" t="n">
-        <v>76.29997783570843</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>297.1808238847177</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.6412480909884</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34790,16 +34790,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>504.1681401741877</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>559.9405577709383</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88662398579324</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>451.8478747603109</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>45.87687150790109</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.65947400496688</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
